--- a/Mifos Automation Excels/Client/4240-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4240-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -202,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -391,6 +396,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -438,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +479,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -845,10 +887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -865,12 +907,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -910,17 +953,18 @@
       <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="15">
@@ -946,8 +990,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -985,14 +1030,15 @@
       <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1028,14 +1074,15 @@
       <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1071,14 +1118,15 @@
       <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1114,14 +1162,15 @@
       <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1157,14 +1206,15 @@
       <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1200,14 +1250,15 @@
       <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1243,14 +1294,15 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1286,14 +1338,15 @@
       <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1329,14 +1382,15 @@
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1372,14 +1426,15 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1415,14 +1470,15 @@
       <c r="M13" s="13">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
         <v>888.49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1458,10 +1514,11 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
         <v>550.61</v>
       </c>
     </row>
@@ -1945,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4240-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4240-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>makerepayment</t>
   </si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -207,8 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -219,12 +211,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -244,6 +230,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -299,23 +295,23 @@
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -328,11 +324,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -340,16 +333,16 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -360,16 +353,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Hyperlink 2" xfId="4"/>
@@ -446,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,26 +487,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,23 +522,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,17 +720,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
         <v>42036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="16">
+        <v>48</v>
+      </c>
+      <c r="B3" s="15">
         <v>1200</v>
       </c>
     </row>
@@ -803,80 +777,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1099.82</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
         <v>8900.18</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>799.58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>635.51</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>100.18</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>535.33000000000004</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>88.91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -890,7 +864,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -906,619 +880,627 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="15">
+      <c r="C2" s="24">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12">
+      <c r="G2" s="25">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="13">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>0</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="24">
         <v>42036</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="24">
         <v>42036</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="14">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27">
         <v>1099.82</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="27">
         <v>8900.18</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="3">
         <v>100.18</v>
       </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>888.49</v>
+      </c>
+      <c r="L3" s="25">
         <v>1200</v>
       </c>
-      <c r="L3" s="12">
-        <v>1200</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="M3" s="25"/>
+      <c r="N3" s="3">
+        <v>311.51</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="24">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="13">
+      <c r="F4" s="3">
         <v>799.58</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="27">
         <v>8100.6</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="3">
         <v>88.91</v>
       </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>888.49</v>
       </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="24">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="13">
+      <c r="F5" s="3">
         <v>798.55</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="27">
         <v>7302.05</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="3">
         <v>89.94</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>888.49</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="24">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="13">
+      <c r="F6" s="3">
         <v>815.52</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="27">
         <v>6486.53</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="3">
         <v>72.97</v>
       </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>888.49</v>
       </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="24">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>823.63</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="27">
         <v>5662.9</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="3">
         <v>64.86</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>888.49</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="24">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>831.88</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="27">
         <v>4831.0200000000004</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="3">
         <v>56.61</v>
       </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>888.49</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="24">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <v>840.19</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="27">
         <v>3990.83</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="3">
         <v>48.3</v>
       </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>888.49</v>
       </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="24">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>848.6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="27">
         <v>3142.23</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="3">
         <v>39.89</v>
       </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>888.49</v>
       </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="24">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>857.09</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="27">
         <v>2285.14</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="3">
         <v>31.4</v>
       </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>888.49</v>
       </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="24">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>865.65</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="27">
         <v>1419.49</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="3">
         <v>22.84</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>888.49</v>
       </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="24">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13">
+      <c r="F13" s="3">
         <v>874.32</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="3">
         <v>545.16999999999996</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="3">
         <v>14.17</v>
       </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>888.49</v>
       </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>888.49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="24">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="13">
+      <c r="F14" s="3">
         <v>545.16999999999996</v>
       </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5.44</v>
       </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>550.61</v>
       </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>550.61</v>
       </c>
     </row>
@@ -1550,203 +1532,203 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>160</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>160</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42095</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12">
         <v>89.94</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
         <v>89.94</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>159</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14">
         <v>42064</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12">
         <v>88.91</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
         <v>88.91</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>158</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>1200</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>1099.82</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>100.18</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>8900.18</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>155</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12">
         <v>100.18</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>100.18</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>154</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14">
         <v>42005</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>10000</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1778,32 +1760,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1811,25 +1793,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,25 +1819,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1884,114 +1866,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>449</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>450</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>450</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="18">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>451</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17">
         <v>42036</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>451</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="19"/>
+      <c r="G4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2020,216 +2002,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>439</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20">
         <v>42036</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>440</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>452</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>453</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>440</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="F6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>454</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>455</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20">
+        <v>42095</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>452</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="21">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="G9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>453</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="21">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>454</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <v>455</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21">
-        <v>42095</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
